--- a/Player_Trend_Analysis.xlsx
+++ b/Player_Trend_Analysis.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\netri\Documents\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\player-performance-development-analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D346EFC1-B3B4-4834-96D2-A0C7A00BC784}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7447C41-29CE-4B39-8A17-9EF71CA868EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Match_data" sheetId="1" r:id="rId1"/>
@@ -929,9 +929,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -952,28 +949,14 @@
     <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="24">
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="2" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-    </dxf>
     <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -1050,6 +1033,23 @@
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1494,7 +1494,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -1507,7 +1507,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
+                  <a:rPr lang="en-US" sz="1200" b="1"/>
                   <a:t>Match Date</a:t>
                 </a:r>
               </a:p>
@@ -1526,7 +1526,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -1613,7 +1613,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -1626,7 +1626,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
+                  <a:rPr lang="en-US" sz="1200" b="1"/>
                   <a:t>Goals per 90 – Rolling 5 Match Average</a:t>
                 </a:r>
               </a:p>
@@ -1645,7 +1645,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -2556,18 +2556,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{05B3508D-1D5A-4A83-A74E-F35AC68C1079}" name="Performance_Data" displayName="Performance_Data" ref="A1:AA201" totalsRowShown="0" headerRowDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{05B3508D-1D5A-4A83-A74E-F35AC68C1079}" name="Performance_Data" displayName="Performance_Data" ref="A1:AA201" totalsRowShown="0" headerRowDxfId="23">
   <autoFilter ref="A1:AA201" xr:uid="{05B3508D-1D5A-4A83-A74E-F35AC68C1079}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AA201">
     <sortCondition ref="F1:F201"/>
   </sortState>
   <tableColumns count="27">
-    <tableColumn id="1" xr3:uid="{0DDF44A5-66CC-4B19-BE1F-DF7F1097F9B5}" name="Match_ID" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{B710A576-16F6-4D1A-AD17-ECB8E438F778}" name="Player_ID" dataDxfId="0"/>
-    <tableColumn id="3" xr3:uid="{0C72D194-C256-4777-B473-F35265F7C117}" name="Player_Name" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{0DDF44A5-66CC-4B19-BE1F-DF7F1097F9B5}" name="Match_ID" dataDxfId="22"/>
+    <tableColumn id="2" xr3:uid="{B710A576-16F6-4D1A-AD17-ECB8E438F778}" name="Player_ID" dataDxfId="21"/>
+    <tableColumn id="3" xr3:uid="{0C72D194-C256-4777-B473-F35265F7C117}" name="Player_Name" dataDxfId="20"/>
     <tableColumn id="4" xr3:uid="{840456D1-7555-4476-A421-576B87595834}" name="Age"/>
-    <tableColumn id="5" xr3:uid="{7213649E-8968-4EA6-BC5F-F0ADDA1AEADE}" name="Position" dataDxfId="23"/>
-    <tableColumn id="6" xr3:uid="{252923C8-4902-4FC5-95F7-93FB2CE779CB}" name="Match_Date" dataDxfId="22"/>
+    <tableColumn id="5" xr3:uid="{7213649E-8968-4EA6-BC5F-F0ADDA1AEADE}" name="Position" dataDxfId="19"/>
+    <tableColumn id="6" xr3:uid="{252923C8-4902-4FC5-95F7-93FB2CE779CB}" name="Match_Date" dataDxfId="18"/>
     <tableColumn id="7" xr3:uid="{D0BACADE-A9C8-4908-962D-56B461E0F7A5}" name="Minutes_Played"/>
     <tableColumn id="8" xr3:uid="{095A47E7-95E0-4C1B-B8B4-32A2C21BBDB1}" name="Goals"/>
     <tableColumn id="9" xr3:uid="{020B05D0-84F9-4832-B758-F8F449ED3559}" name="Assists"/>
@@ -2577,47 +2577,47 @@
     <tableColumn id="13" xr3:uid="{07A1FCF7-6463-49D0-9679-B261C16FCE79}" name="Duels_Won"/>
     <tableColumn id="14" xr3:uid="{422036B0-6ED1-4E43-87E1-B3215DAE913A}" name="Pass_Accuracy"/>
     <tableColumn id="15" xr3:uid="{8F4EB134-65FF-4193-ADE9-45B4BEEFABE3}" name="Distance_Covered_km"/>
-    <tableColumn id="16" xr3:uid="{0071A476-93A0-440A-AE6E-E7A698F22771}" name="Goals_per_90" dataDxfId="21">
+    <tableColumn id="16" xr3:uid="{0071A476-93A0-440A-AE6E-E7A698F22771}" name="Goals_per_90" dataDxfId="17">
       <calculatedColumnFormula>IF(G2&gt;0, H2*90/G2,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" xr3:uid="{F717916B-9ECD-49E2-BC2C-6B39EA915BED}" name="Assists_per_90" dataDxfId="20">
+    <tableColumn id="17" xr3:uid="{F717916B-9ECD-49E2-BC2C-6B39EA915BED}" name="Assists_per_90" dataDxfId="16">
       <calculatedColumnFormula>IF(Performance_Data[[#This Row],[Minutes_Played]]&gt;0,Performance_Data[[#This Row],[Assists]]*90/Performance_Data[[#This Row],[Minutes_Played]], 0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" xr3:uid="{25DEF415-F1F3-443A-AB56-9F7D89C6E913}" name="Key_passes_per_90" dataDxfId="19">
+    <tableColumn id="18" xr3:uid="{25DEF415-F1F3-443A-AB56-9F7D89C6E913}" name="Key_passes_per_90" dataDxfId="15">
       <calculatedColumnFormula>IF(Performance_Data[[#This Row],[Key_Passes]]&gt;0,Performance_Data[[#This Row],[Key_Passes]]*90/Performance_Data[[#This Row],[Minutes_Played]],0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="19" xr3:uid="{4A02F736-95B7-4440-8327-300ED5598B32}" name="Shots_per_90" dataDxfId="18">
+    <tableColumn id="19" xr3:uid="{4A02F736-95B7-4440-8327-300ED5598B32}" name="Shots_per_90" dataDxfId="14">
       <calculatedColumnFormula>IF(Performance_Data[[#This Row],[Shots]]&gt;0,Performance_Data[[#This Row],[Shots]]*90/Performance_Data[[#This Row],[Minutes_Played]],0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" xr3:uid="{F3AD9644-613B-4105-89DD-8800E56DB663}" name="Dribbles_per_90" dataDxfId="17">
+    <tableColumn id="20" xr3:uid="{F3AD9644-613B-4105-89DD-8800E56DB663}" name="Dribbles_per_90" dataDxfId="13">
       <calculatedColumnFormula>IF(Performance_Data[[#This Row],[Successful_Dribbles]]&gt;0,Performance_Data[[#This Row],[Successful_Dribbles]]*90/Performance_Data[[#This Row],[Minutes_Played]],0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="21" xr3:uid="{945DC4FD-5978-45AD-B720-034EB9FEDA6D}" name="Duels_per_90" dataDxfId="16">
+    <tableColumn id="21" xr3:uid="{945DC4FD-5978-45AD-B720-034EB9FEDA6D}" name="Duels_per_90" dataDxfId="12">
       <calculatedColumnFormula>IF(Performance_Data[[#This Row],[Duels_Won]]&gt;0,Performance_Data[[#This Row],[Duels_Won]]*90/Performance_Data[[#This Row],[Minutes_Played]],0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="22" xr3:uid="{031C1374-8141-45FE-BF57-FB9DF6E990FE}" name="Goals90_Rolling5" dataDxfId="15">
+    <tableColumn id="22" xr3:uid="{031C1374-8141-45FE-BF57-FB9DF6E990FE}" name="Goals90_Rolling5" dataDxfId="11">
       <calculatedColumnFormula>AVERAGE(P1:P5)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="23" xr3:uid="{E52E547F-5588-4A61-9F6E-70C9E65B93B4}" name="Assists90_Rolling5" dataDxfId="14">
+    <tableColumn id="23" xr3:uid="{E52E547F-5588-4A61-9F6E-70C9E65B93B4}" name="Assists90_Rolling5" dataDxfId="10">
       <calculatedColumnFormula>AVERAGE(Q2:Q6)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="24" xr3:uid="{CEE64FBC-707C-4F80-9A90-96AC18A648A3}" name="KeyPasses90_Rolling5" dataDxfId="13"/>
-    <tableColumn id="25" xr3:uid="{8349533D-8196-4CD4-A47A-E34FB7C9AE65}" name="Shots90_Rolling5" dataDxfId="12"/>
-    <tableColumn id="26" xr3:uid="{1FFB9B71-E507-4FB1-B611-38B608312281}" name="Dribbles90_Rolling5" dataDxfId="11"/>
-    <tableColumn id="27" xr3:uid="{0A2C5B0A-C916-442D-89D3-CE3FDA199D3F}" name="Duels90_Rolling5" dataDxfId="10"/>
+    <tableColumn id="24" xr3:uid="{CEE64FBC-707C-4F80-9A90-96AC18A648A3}" name="KeyPasses90_Rolling5" dataDxfId="9"/>
+    <tableColumn id="25" xr3:uid="{8349533D-8196-4CD4-A47A-E34FB7C9AE65}" name="Shots90_Rolling5" dataDxfId="8"/>
+    <tableColumn id="26" xr3:uid="{1FFB9B71-E507-4FB1-B611-38B608312281}" name="Dribbles90_Rolling5" dataDxfId="7"/>
+    <tableColumn id="27" xr3:uid="{0A2C5B0A-C916-442D-89D3-CE3FDA199D3F}" name="Duels90_Rolling5" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00F78406-2120-499E-A6CA-120A414E9467}" name="Table1" displayName="Table1" ref="A1:D11" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00F78406-2120-499E-A6CA-120A414E9467}" name="Table1" displayName="Table1" ref="A1:D11" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
   <autoFilter ref="A1:D11" xr:uid="{00F78406-2120-499E-A6CA-120A414E9467}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{67F0AA5A-FE2A-4D17-9E55-1BDD09656B34}" name="Player_ID" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{B6473D3E-60A4-46D9-8084-B8FFCE35D07A}" name="Player_Name" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{77119FE4-5180-4D09-AF99-300434C32F64}" name="Position" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{EF863FD6-8BED-438F-87AA-8D2E97100758}" name="Age" dataDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{67F0AA5A-FE2A-4D17-9E55-1BDD09656B34}" name="Player_ID" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{B6473D3E-60A4-46D9-8084-B8FFCE35D07A}" name="Player_Name" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{77119FE4-5180-4D09-AF99-300434C32F64}" name="Position" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{EF863FD6-8BED-438F-87AA-8D2E97100758}" name="Age" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2888,8 +2888,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA201"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B201"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2924,85 +2924,85 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="19" t="s">
+      <c r="A1" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="F1" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="G1" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="H1" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="19" t="s">
+      <c r="I1" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="19" t="s">
+      <c r="J1" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="19" t="s">
+      <c r="K1" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="19" t="s">
+      <c r="L1" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="19" t="s">
+      <c r="M1" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="19" t="s">
+      <c r="N1" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="19" t="s">
+      <c r="O1" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="19" t="s">
+      <c r="P1" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="Q1" s="19" t="s">
+      <c r="Q1" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="R1" s="19" t="s">
+      <c r="R1" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="S1" s="19" t="s">
+      <c r="S1" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="T1" s="19" t="s">
+      <c r="T1" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="U1" s="19" t="s">
+      <c r="U1" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="V1" s="19" t="s">
+      <c r="V1" s="18" t="s">
         <v>245</v>
       </c>
-      <c r="W1" s="19" t="s">
+      <c r="W1" s="18" t="s">
         <v>246</v>
       </c>
-      <c r="X1" s="19" t="s">
+      <c r="X1" s="18" t="s">
         <v>247</v>
       </c>
-      <c r="Y1" s="19" t="s">
+      <c r="Y1" s="18" t="s">
         <v>248</v>
       </c>
-      <c r="Z1" s="19" t="s">
+      <c r="Z1" s="18" t="s">
         <v>249</v>
       </c>
-      <c r="AA1" s="19" t="s">
+      <c r="AA1" s="18" t="s">
         <v>250</v>
       </c>
     </row>
@@ -21948,7 +21948,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -22125,8 +22125,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21724763-3DE7-4CF3-B97B-62F67E09A553}">
   <dimension ref="A1:AO24"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="X6" sqref="X6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -22137,46 +22137,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:41" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="15" t="s">
         <v>251</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="11"/>
+      <c r="C1" s="10"/>
     </row>
     <row r="2" spans="1:41" ht="18" x14ac:dyDescent="0.35">
-      <c r="A2" s="15"/>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
+      <c r="A2" s="14"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
     </row>
     <row r="3" spans="1:41" ht="18" x14ac:dyDescent="0.35">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="16" t="s">
         <v>245</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="16" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="4" spans="1:41" ht="18" x14ac:dyDescent="0.35">
-      <c r="A4" s="12" cm="1">
+      <c r="A4" s="11" cm="1">
         <f t="array" ref="A4:A23">IFERROR(
   _xlfn._xlws.FILTER(Performance_Data[Match_Date],
          Performance_Data[Player_ID]=$B$1),
 "")</f>
         <v>45658</v>
       </c>
-      <c r="B4" s="13" cm="1">
+      <c r="B4" s="12" cm="1">
         <f t="array" ref="B4:B23">IFERROR(
   _xlfn._xlws.FILTER(Performance_Data[Goals90_Rolling5],
          Performance_Data[Player_ID]=$B$1),
 "")</f>
         <v>0</v>
       </c>
-      <c r="C4" s="11" cm="1">
+      <c r="C4" s="10" cm="1">
         <f t="array" ref="C4:C23">IFERROR(
   _xlfn._xlws.FILTER(Performance_Data[Assists90_Rolling5],
          Performance_Data[Player_ID]=$B$1),
@@ -22185,234 +22185,234 @@
       </c>
     </row>
     <row r="5" spans="1:41" ht="18" x14ac:dyDescent="0.35">
-      <c r="A5" s="12">
+      <c r="A5" s="11">
         <v>45659</v>
       </c>
-      <c r="B5" s="13">
-        <v>0</v>
-      </c>
-      <c r="C5" s="11">
+      <c r="B5" s="12">
+        <v>0</v>
+      </c>
+      <c r="C5" s="10">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:41" ht="18" x14ac:dyDescent="0.35">
-      <c r="A6" s="12">
+      <c r="A6" s="11">
         <v>45660</v>
       </c>
-      <c r="B6" s="13">
-        <v>0</v>
-      </c>
-      <c r="C6" s="11">
+      <c r="B6" s="12">
+        <v>0</v>
+      </c>
+      <c r="C6" s="10">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:41" ht="18" x14ac:dyDescent="0.35">
-      <c r="A7" s="12">
+      <c r="A7" s="11">
         <v>45661</v>
       </c>
-      <c r="B7" s="13">
-        <v>0</v>
-      </c>
-      <c r="C7" s="11">
-        <v>0</v>
-      </c>
-      <c r="AL7" s="10" t="s">
+      <c r="B7" s="12">
+        <v>0</v>
+      </c>
+      <c r="C7" s="10">
+        <v>0</v>
+      </c>
+      <c r="AL7" s="21" t="s">
         <v>252</v>
       </c>
-      <c r="AM7" s="10"/>
-      <c r="AN7" s="10"/>
-      <c r="AO7" s="10"/>
+      <c r="AM7" s="21"/>
+      <c r="AN7" s="21"/>
+      <c r="AO7" s="21"/>
     </row>
     <row r="8" spans="1:41" ht="18" x14ac:dyDescent="0.35">
-      <c r="A8" s="12">
+      <c r="A8" s="11">
         <v>45662</v>
       </c>
-      <c r="B8" s="14">
+      <c r="B8" s="13">
         <v>2.8817610960468101</v>
       </c>
-      <c r="C8" s="14">
+      <c r="C8" s="13">
         <v>1.5132367632367631</v>
       </c>
-      <c r="AL8" s="10" t="str">
+      <c r="AL8" s="21" t="str">
         <f>"Goals per 90 - Rolling 5 Match Average (" &amp; B1 &amp; ")"</f>
         <v>Goals per 90 - Rolling 5 Match Average (P01)</v>
       </c>
-      <c r="AM8" s="10"/>
-      <c r="AN8" s="10"/>
-      <c r="AO8" s="10"/>
+      <c r="AM8" s="21"/>
+      <c r="AN8" s="21"/>
+      <c r="AO8" s="21"/>
     </row>
     <row r="9" spans="1:41" ht="18" x14ac:dyDescent="0.35">
-      <c r="A9" s="12">
+      <c r="A9" s="11">
         <v>45663</v>
       </c>
-      <c r="B9" s="14">
+      <c r="B9" s="13">
         <v>1.7797202797202796</v>
       </c>
-      <c r="C9" s="14">
+      <c r="C9" s="13">
         <v>2.0275224775224774</v>
       </c>
     </row>
     <row r="10" spans="1:41" ht="18" x14ac:dyDescent="0.35">
-      <c r="A10" s="12">
+      <c r="A10" s="11">
         <v>45664</v>
       </c>
-      <c r="B10" s="14">
+      <c r="B10" s="13">
         <v>1.5204290091930541</v>
       </c>
-      <c r="C10" s="14">
+      <c r="C10" s="13">
         <v>1.7967532467532468</v>
       </c>
     </row>
     <row r="11" spans="1:41" ht="18" x14ac:dyDescent="0.35">
-      <c r="A11" s="12">
+      <c r="A11" s="11">
         <v>45665</v>
       </c>
-      <c r="B11" s="14">
+      <c r="B11" s="13">
         <v>0.702247191011236</v>
       </c>
-      <c r="C11" s="14">
+      <c r="C11" s="13">
         <v>0.97857142857142843</v>
       </c>
     </row>
     <row r="12" spans="1:41" ht="18" x14ac:dyDescent="0.35">
-      <c r="A12" s="12">
+      <c r="A12" s="11">
         <v>45666</v>
       </c>
-      <c r="B12" s="14">
+      <c r="B12" s="13">
         <v>0.20224719101123595</v>
       </c>
-      <c r="C12" s="14">
+      <c r="C12" s="13">
         <v>0.72857142857142865</v>
       </c>
     </row>
     <row r="13" spans="1:41" ht="18" x14ac:dyDescent="0.35">
-      <c r="A13" s="12">
+      <c r="A13" s="11">
         <v>45667</v>
       </c>
-      <c r="B13" s="14">
+      <c r="B13" s="13">
         <v>0.20224719101123595</v>
       </c>
-      <c r="C13" s="14">
+      <c r="C13" s="13">
         <v>1.1349753694581282</v>
       </c>
     </row>
     <row r="14" spans="1:41" ht="18" x14ac:dyDescent="0.35">
-      <c r="A14" s="12">
+      <c r="A14" s="11">
         <v>45668</v>
       </c>
-      <c r="B14" s="14">
+      <c r="B14" s="13">
         <v>0.20224719101123595</v>
       </c>
-      <c r="C14" s="14">
+      <c r="C14" s="13">
         <v>1.3553835327234343</v>
       </c>
     </row>
     <row r="15" spans="1:41" ht="18" x14ac:dyDescent="0.35">
-      <c r="A15" s="12">
+      <c r="A15" s="11">
         <v>45669</v>
       </c>
-      <c r="B15" s="14">
+      <c r="B15" s="13">
         <v>0.29032258064516131</v>
       </c>
-      <c r="C15" s="14">
+      <c r="C15" s="13">
         <v>1.6457061133685955</v>
       </c>
     </row>
     <row r="16" spans="1:41" ht="18" x14ac:dyDescent="0.35">
-      <c r="A16" s="12">
+      <c r="A16" s="11">
         <v>45670</v>
       </c>
-      <c r="B16" s="14">
+      <c r="B16" s="13">
         <v>0.29032258064516131</v>
       </c>
-      <c r="C16" s="14">
+      <c r="C16" s="13">
         <v>1.9407880805817102</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="18" x14ac:dyDescent="0.35">
-      <c r="A17" s="12">
+      <c r="A17" s="11">
         <v>45671</v>
       </c>
-      <c r="B17" s="14">
+      <c r="B17" s="13">
         <v>0.57157258064516125</v>
       </c>
-      <c r="C17" s="14">
+      <c r="C17" s="13">
         <v>1.9407880805817102</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="18" x14ac:dyDescent="0.35">
-      <c r="A18" s="12">
+      <c r="A18" s="11">
         <v>45672</v>
       </c>
-      <c r="B18" s="14">
+      <c r="B18" s="13">
         <v>0.57157258064516125</v>
       </c>
-      <c r="C18" s="14">
+      <c r="C18" s="13">
         <v>1.6874453641848066</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="18" x14ac:dyDescent="0.35">
-      <c r="A19" s="12">
+      <c r="A19" s="11">
         <v>45673</v>
       </c>
-      <c r="B19" s="14">
+      <c r="B19" s="13">
         <v>0.57157258064516125</v>
       </c>
-      <c r="C19" s="14">
+      <c r="C19" s="13">
         <v>0.95275148663378617</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="18" x14ac:dyDescent="0.35">
-      <c r="A20" s="12">
+      <c r="A20" s="11">
         <v>45674</v>
       </c>
-      <c r="B20" s="14">
+      <c r="B20" s="13">
         <v>0.74878246753246747</v>
       </c>
-      <c r="C20" s="14">
+      <c r="C20" s="13">
         <v>0.66242890598862503</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="18" x14ac:dyDescent="0.35">
-      <c r="A21" s="12">
+      <c r="A21" s="11">
         <v>45675</v>
       </c>
-      <c r="B21" s="14">
+      <c r="B21" s="13">
         <v>1.2487824675324675</v>
       </c>
-      <c r="C21" s="14">
+      <c r="C21" s="13">
         <v>0.86734693877551017</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="18" x14ac:dyDescent="0.35">
-      <c r="A22" s="12">
+      <c r="A22" s="11">
         <v>45676</v>
       </c>
-      <c r="B22" s="14">
+      <c r="B22" s="13">
         <v>1.3425324675324675</v>
       </c>
-      <c r="C22" s="14">
+      <c r="C22" s="13">
         <v>1.6173469387755102</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="18" x14ac:dyDescent="0.35">
-      <c r="A23" s="12">
+      <c r="A23" s="11">
         <v>45677</v>
       </c>
-      <c r="B23" s="14">
+      <c r="B23" s="13">
         <v>1.7762674072915037</v>
       </c>
-      <c r="C23" s="14">
+      <c r="C23" s="13">
         <v>1.25</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="18" x14ac:dyDescent="0.35">
-      <c r="A24" s="11"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="11"/>
+      <c r="A24" s="10"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="P9GkRbfMBU1GYqyDEYF2ihdp1WcoFC5dE1a7elcpIJnE43suaUrv/7x62YzIIpKiBYpGd29vSuHC9Yj8DakuTA==" saltValue="HaSDxikp6z9xn+ixKbAFcQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="7b3VYVV0xhGe/DCSkvHkQNcO+lA0wcurrOLwFgJdB1HCGZVmHD2tV/sc/g6zboQxLN0/tqzC6+r7mrtKwRQArQ==" saltValue="6kbr5l3YrYYropDoNf9tgA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="2">
     <mergeCell ref="AL8:AO8"/>
     <mergeCell ref="AL7:AO7"/>
